--- a/os_fe_20180810.xlsx
+++ b/os_fe_20180810.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A09B1AA4-8E68-6241-82FA-39449225214E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BAB324AE-B664-664B-BDC9-ECD20793A5B9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="900" windowWidth="14720" windowHeight="15380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="600" yWindow="900" windowWidth="28140" windowHeight="15380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="compare.xlsx" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5043" uniqueCount="1187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5043" uniqueCount="1188">
   <si>
     <t>文件目录</t>
   </si>
@@ -3751,6 +3751,10 @@
   </si>
   <si>
     <t>And</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Home</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -4150,12 +4154,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H631"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A595" workbookViewId="0">
-      <selection activeCell="F606" sqref="F606"/>
+    <sheetView tabSelected="1" topLeftCell="B490" workbookViewId="0">
+      <selection activeCell="G521" sqref="G521"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
+    <col min="1" max="1" width="66.6640625" customWidth="1"/>
     <col min="6" max="6" width="51.33203125" customWidth="1"/>
     <col min="7" max="7" width="91.5" customWidth="1"/>
   </cols>
@@ -17694,7 +17699,7 @@
         <v>170</v>
       </c>
       <c r="G521" t="s">
-        <v>171</v>
+        <v>1187</v>
       </c>
       <c r="H521" t="s">
         <v>6</v>
